--- a/results/DT/125Hz_3classes/res_hyperopt.xlsx
+++ b/results/DT/125Hz_3classes/res_hyperopt.xlsx
@@ -470,19 +470,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="D2" t="n">
         <v>0.75</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 62, 'max_features': 0.14182903937102515, 'min_samples_leaf': 0.0011560554353679327, 'min_samples_split': 0.05441862295275347}</t>
+          <t>{'max_depth': 18, 'max_features': 0.15018892497447492, 'min_samples_leaf': 0.010116201948689016, 'min_samples_split': 0.055426080085972065}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.076, 'max_10_25': 0.012, 'score_at_perc_10_25': 0.003, 'min_10_25': 0.088, 'var_10_25': 0.053, 'mean_10_50': 0.07, 'percScore_10_50': 0.036, 'skew_25_75': 0.026, 'var_25_75': 0.042, 'coef_var_50_100': 0.061, 'std_class_50_100': 0.055, 'var_50_100': 0.02, 'mean_75_125': 0.02, 'max_75_125': 0.198, 'kurt_75_125': 0.075, 'score_at_perc_75_125': 0.035, 'coef_var_75_125': 0.036, 'min_75_125': 0.06, 'std_class_75_125': 0.031}</t>
+          <t>{'mean_10_25': 0.077, 'max_10_25': 0.013, 'min_10_25': 0.09, 'mean_10_50': 0.071, 'percScore_10_50': 0.036, 'std_class_10_50': 0.054, 'skew_25_75': 0.027, 'var_25_75': 0.043, 'coef_var_50_100': 0.062, 'std_class_50_100': 0.056, 'var_50_100': 0.012, 'mean_75_125': 0.014, 'max_75_125': 0.202, 'kurt_75_125': 0.077, 'score_at_perc_75_125': 0.036, 'coef_var_75_125': 0.037, 'min_75_125': 0.061, 'std_class_75_125': 0.031}</t>
         </is>
       </c>
     </row>
@@ -503,12 +503,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 37, 'max_features': 0.9470757176974776, 'min_samples_leaf': 0.03422307578255725, 'min_samples_split': 0.05147188776683391}</t>
+          <t>{'max_depth': 54, 'max_features': 0.5452505456986799, 'min_samples_leaf': 0.034100757486156506, 'min_samples_split': 0.14115812933590927}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.05, 'var_10_25': 0.105, 'mean_10_50': 0.012, 'entropy_10_50': 0.001, 'coef_var_10_50': 0.05, 'min_25_75': 0.099, 'var_25_75': 0.02, 'max_75_125': 0.483, 'kurt_75_125': 0.004, 'std_class_75_125': 0.177}</t>
+          <t>{'var_75_125': 0.107, 'mean_10_25': 0.036, 'percScore_10_50': 0.001, 'coef_var_10_50': 0.051, 'mean_25_75': 0.012, 'std_class_25_75': 0.101, 'var_50_100': 0.019, 'max_75_125': 0.493, 'min_75_125': 0.058, 'std_class_75_125': 0.123}</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 70, 'max_features': 0.17417702876061886, 'min_samples_leaf': 0.0010905562888465746, 'min_samples_split': 0.015199378108698843}</t>
+          <t>{'max_depth': 84, 'max_features': 0.1838781617751531, 'min_samples_leaf': 0.001037240954348691, 'min_samples_split': 0.014290640314462269}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 24, 'max_features': 0.3940598131318306, 'min_samples_leaf': 0.041658244956365525, 'min_samples_split': 0.047625577454538354}</t>
+          <t>{'max_depth': 83, 'max_features': 0.3985755127303509, 'min_samples_leaf': 0.039349989020516535, 'min_samples_split': 0.027391980765357014}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 30, 'max_features': 0.260455796984386, 'min_samples_leaf': 0.0015015236165635138, 'min_samples_split': 0.001394981546311104}</t>
+          <t>{'max_depth': 28, 'max_features': 0.6707743000437969, 'min_samples_leaf': 0.0012913789297755857, 'min_samples_split': 0.01436435951466827}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.005, 'mean_10_25': 0.049, 'max_10_25': 0.005, 'score_at_perc_10_25': 0.013, 'min_10_25': 0.012, 'var_10_25': 0.055, 'mean_10_50': 0.064, 'max_10_50': 0.032, 'kurt_10_50': 0.032, 'min_10_50': 0.084, 'var_10_50': 0.06, 'max_25_75': 0.003, 'kurt_25_75': 0.007, 'min_25_75': 0.007, 'kurt_50_100': 0.228, 'skew_50_100': 0.008, 'entropy_50_100': 0.018, 'coef_var_50_100': 0.094, 'std_class_50_100': 0.099, 'var_50_100': 0.075, 'mean_75_125': 0.013, 'percScore_75_125': 0.017, 'std_class_75_125': 0.019}</t>
+          <t>{'mean_10_25': 0.176, 'score_at_perc_10_25': 0.014, 'var_10_25': 0.019, 'mean_10_50': 0.091, 'skew_10_50': 0.014, 'min_10_50': 0.014, 'std_class_10_50': 0.067, 'mean_25_75': 0.037, 'score_at_perc_25_75': 0.011, 'var_25_75': 0.085, 'max_50_100': 0.264, 'std_class_50_100': 0.01, 'max_75_125': 0.038, 'coef_var_75_125': 0.15, 'min_75_125': 0.01}</t>
         </is>
       </c>
     </row>
@@ -603,16 +603,16 @@
         <v>0.98</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 63, 'max_features': 0.4562184538286416, 'min_samples_leaf': 0.0012100357109316702, 'min_samples_split': 0.027085200850746817}</t>
+          <t>{'max_depth': 27, 'max_features': 0.8801910244613744, 'min_samples_leaf': 0.004005797908713759, 'min_samples_split': 0.006602346196441657}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.085, 'percScore_10_25': 0.033, 'score_at_perc_10_25': 0.091, 'coef_var_10_25': 0.02, 'min_10_25': 0.01, 'mean_10_50': 0.029, 'max_10_50': 0.01, 'kurt_10_50': 0.025, 'skew_10_50': 0.014, 'entropy_10_50': 0.009, 'coef_var_10_50': 0.046, 'var_10_50': 0.021, 'skew_25_75': 0.021, 'max_50_100': 0.282, 'percScore_50_100': 0.016, 'min_50_100': 0.031, 'var_50_100': 0.01, 'mean_75_125': 0.01, 'coef_var_75_125': 0.179, 'coef_kstatvar_75_125': 0.011, 'std_class_75_125': 0.045}</t>
+          <t>{'mean_10_25': 0.113, 'kurt_10_25': 0.004, 'var_10_25': 0.07, 'mean_10_50': 0.079, 'max_10_50': 0.017, 'skew_10_50': 0.009, 'percScore_10_50': 0.014, 'score_at_perc_10_50': 0.051, 'score_at_perc_25_75': 0.014, 'var_25_75': 0.134, 'max_50_100': 0.028, 'var_50_100': 0.032, 'max_75_125': 0.227, 'skew_75_125': 0.004, 'coef_var_75_125': 0.055, 'min_75_125': 0.133, 'std_class_75_125': 0.016}</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 54, 'max_features': 0.18265992044600635, 'min_samples_leaf': 0.0010563965875295608, 'min_samples_split': 0.0035455412980332085}</t>
+          <t>{'max_depth': 80, 'max_features': 0.18279539374796566, 'min_samples_leaf': 0.0015393729291816663, 'min_samples_split': 0.0014377910220431424}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 54, 'max_features': 0.20485808856785587, 'min_samples_leaf': 0.0013509150901014828, 'min_samples_split': 0.015445744395327199}</t>
+          <t>{'max_depth': 94, 'max_features': 0.20579658690726024, 'min_samples_leaf': 0.0018057032496326749, 'min_samples_split': 0.014532088817659107}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.67</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 53, 'max_features': 0.42759396484361706, 'min_samples_leaf': 0.001169621899605712, 'min_samples_split': 0.009409112692526618}</t>
+          <t>{'max_depth': 65, 'max_features': 0.3940034358948221, 'min_samples_leaf': 0.0021894433712392027, 'min_samples_split': 0.00689050043792213}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.045, 'kurt_10_25': 0.066, 'percScore_10_25': 0.001, 'score_at_perc_10_25': 0.046, 'coef_var_10_25': 0.052, 'min_10_25': 0.033, 'skew_10_50': 0.006, 'percScore_10_50': 0.048, 'min_10_50': 0.058, 'std_class_10_50': 0.024, 'mean_25_75': 0.008, 'kurt_25_75': 0.007, 'entropy_25_75': 0.007, 'min_25_75': 0.042, 'var_25_75': 0.109, 'coef_var_50_100': 0.097, 'coef_kstatvar_50_100': 0.02, 'var_50_100': 0.032, 'max_75_125': 0.237, 'kurt_75_125': 0.009, 'coef_var_75_125': 0.009, 'min_75_125': 0.037, 'std_class_75_125': 0.007}</t>
+          <t>{'var_75_125': 0.038, 'mean_10_25': 0.095, 'max_10_25': 0.067, 'kurt_10_25': 0.009, 'skew_10_25': 0.006, 'percScore_10_25': 0.042, 'entropy_10_25': 0.016, 'coef_kstatvar_10_25': 0.002, 'min_10_25': 0.034, 'var_10_25': 0.024, 'kurt_10_50': 0.031, 'skew_10_50': 0.036, 'mad_10_50': 0.007, 'entropy_25_75': 0.007, 'coef_kstatvar_25_75': 0.005, 'std_class_25_75': 0.024, 'var_25_75': 0.069, 'mean_50_100': 0.007, 'max_50_100': 0.037, 'kurt_50_100': 0.204, 'coef_var_50_100': 0.108, 'mean_75_125': 0.018, 'max_75_125': 0.015, 'skew_75_125': 0.007, 'coef_var_75_125': 0.003, 'min_75_125': 0.055, 'std_class_75_125': 0.037}</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 66, 'max_features': 0.19973893028058767, 'min_samples_leaf': 0.0012066054957581092, 'min_samples_split': 0.03790026702589834}</t>
+          <t>{'max_depth': 75, 'max_features': 0.1928893603306355, 'min_samples_leaf': 0.0015907935404515239, 'min_samples_split': 0.0371528747921385}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="D12" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 8, 'max_features': 0.4932857546955115, 'min_samples_leaf': 0.001059508031874018, 'min_samples_split': 0.009962592073850456}</t>
+          <t>{'max_depth': 23, 'max_features': 0.6926512586449931, 'min_samples_leaf': 0.01777135813134989, 'min_samples_split': 0.03051584270286361}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.037, 'max_10_25': 0.008, 'percScore_10_25': 0.006, 'std_class_10_25': 0.028, 'mean_10_50': 0.063, 'max_10_50': 0.007, 'percScore_10_50': 0.002, 'score_at_perc_10_50': 0.014, 'coef_var_10_50': 0.04, 'min_10_50': 0.067, 'var_10_50': 0.06, 'max_25_75': 0.008, 'std_class_25_75': 0.006, 'max_50_100': 0.282, 'std_class_50_100': 0.034, 'var_50_100': 0.09, 'max_75_125': 0.125, 'kurt_75_125': 0.028, 'skew_75_125': 0.007, 'entropy_75_125': 0.006, 'min_75_125': 0.055, 'std_class_75_125': 0.026}</t>
+          <t>{'mean_10_25': 0.14, 'entropy_10_25': 0.019, 'std_class_10_25': 0.038, 'mean_10_50': 0.019, 'min_10_50': 0.049, 'std_class_10_50': 0.083, 'min_25_75': 0.08, 'var_25_75': 0.065, 'max_50_100': 0.321, 'min_50_100': 0.027, 'var_50_100': 0.006, 'coef_var_75_125': 0.15, 'coef_kstatvar_75_125': 0.003}</t>
         </is>
       </c>
     </row>
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D13" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 59, 'max_features': 0.47484248757052894, 'min_samples_leaf': 0.0015758551430948334, 'min_samples_split': 0.010752649597833723}</t>
+          <t>{'max_depth': 74, 'max_features': 0.4663681639562543, 'min_samples_leaf': 0.0028411283753581413, 'min_samples_split': 0.003761510921480714}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.04, 'mean_10_25': 0.099, 'kurt_10_25': 0.016, 'percScore_10_25': 0.014, 'coef_kstatvar_10_25': 0.013, 'max_10_50': 0.002, 'kurt_10_50': 0.007, 'min_10_50': 0.045, 'std_class_10_50': 0.03, 'mean_25_75': 0.071, 'kurt_25_75': 0.054, 'entropy_25_75': 0.018, 'score_at_perc_25_75': 0.011, 'min_25_75': 0.069, 'var_25_75': 0.075, 'max_50_100': 0.258, 'mad_50_100': 0.008, 'coef_var_50_100': 0.057, 'min_50_100': 0.031, 'std_class_50_100': 0.056, 'percScore_75_125': 0.008, 'coef_var_75_125': 0.019}</t>
+          <t>{'mean_10_25': 0.004, 'coef_kstatvar_10_25': 0.013, 'var_10_25': 0.014, 'max_10_50': 0.007, 'percScore_10_50': 0.005, 'coef_var_10_50': 0.039, 'min_10_50': 0.118, 'std_class_10_50': 0.03, 'var_10_50': 0.015, 'mean_25_75': 0.062, 'max_25_75': 0.021, 'kurt_25_75': 0.032, 'coef_kstatvar_25_75': 0.011, 'min_25_75': 0.049, 'std_class_25_75': 0.014, 'var_25_75': 0.076, 'max_50_100': 0.269, 'kurt_50_100': 0.002, 'percScore_50_100': 0.004, 'coef_var_50_100': 0.024, 'min_50_100': 0.034, 'var_50_100': 0.008, 'mean_75_125': 0.01, 'kurt_75_125': 0.004, 'coef_var_75_125': 0.1, 'min_75_125': 0.035}</t>
         </is>
       </c>
     </row>
@@ -789,12 +789,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 65, 'max_features': 0.3071148148945824, 'min_samples_leaf': 0.0016393771376324025, 'min_samples_split': 0.009930226630052396}</t>
+          <t>{'max_depth': 46, 'max_features': 0.6343750699692955, 'min_samples_leaf': 0.0011010699368833486, 'min_samples_split': 0.03179459789509544}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.046, 'max_10_25': 0.011, 'skew_10_25': 0.006, 'entropy_10_25': 0.019, 'score_at_perc_10_25': 0.006, 'min_10_25': 0.051, 'std_class_10_25': 0.046, 'var_10_25': 0.012, 'mean_10_50': 0.045, 'skew_10_50': 0.011, 'min_10_50': 0.007, 'var_10_50': 0.03, 'mean_25_75': 0.007, 'kurt_25_75': 0.007, 'entropy_25_75': 0.01, 'coef_kstatvar_25_75': 0.007, 'std_class_25_75': 0.029, 'var_25_75': 0.062, 'max_50_100': 0.068, 'entropy_50_100': 0.017, 'coef_var_50_100': 0.096, 'min_50_100': 0.006, 'mean_75_125': 0.053, 'max_75_125': 0.237, 'kurt_75_125': 0.036, 'percScore_75_125': 0.004, 'min_75_125': 0.034, 'std_class_75_125': 0.035}</t>
+          <t>{'var_75_125': 0.065, 'mean_10_25': 0.054, 'percScore_10_25': 0.007, 'coef_var_10_25': 0.054, 'min_10_25': 0.007, 'std_class_10_25': 0.037, 'mean_10_50': 0.073, 'max_10_50': 0.007, 'kurt_10_50': 0.068, 'min_10_50': 0.076, 'var_25_75': 0.061, 'max_50_100': 0.247, 'coef_var_50_100': 0.047, 'var_50_100': 0.026, 'max_75_125': 0.004, 'coef_var_75_125': 0.063, 'min_75_125': 0.072, 'std_class_75_125': 0.032}</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.84</v>
+        <v>0.61</v>
       </c>
       <c r="D15" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 20, 'max_features': 0.13775817504464594, 'min_samples_leaf': 0.0050691360251054265, 'min_samples_split': 0.1331652413240952}</t>
+          <t>{'max_depth': 83, 'max_features': 0.46584992669112507, 'min_samples_leaf': 0.2447211708157528, 'min_samples_split': 0.04554806990343573}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.05, 'score_at_perc_10_25': 0.021, 'std_class_10_50': 0.179, 'coef_var_25_75': 0.042, 'min_25_75': 0.15, 'std_class_25_75': 0.018, 'mad_50_100': 0.164, 'coef_var_50_100': 0.171, 'mean_75_125': 0.048, 'kurt_75_125': 0.015, 'score_at_perc_75_125': 0.063, 'coef_var_75_125': 0.08}</t>
+          <t>{'var_10_50': 0.288, 'max_50_100': 0.712}</t>
         </is>
       </c>
     </row>
@@ -834,19 +834,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="D16" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 11, 'max_features': 0.3038803217257411, 'min_samples_leaf': 0.002382140110556783, 'min_samples_split': 0.008017235383566369}</t>
+          <t>{'max_depth': 88, 'max_features': 0.2838220264756436, 'min_samples_leaf': 0.011891285515210112, 'min_samples_split': 0.057064340606608865}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'var_75_125': 0.02, 'mean_10_25': 0.055, 'skew_10_25': 0.012, 'min_10_25': 0.019, 'std_class_10_25': 0.048, 'mean_10_50': 0.054, 'max_10_50': 0.001, 'coef_var_10_50': 0.014, 'coef_kstatvar_10_50': 0.018, 'min_10_50': 0.067, 'var_10_50': 0.015, 'skew_25_75': 0.016, 'coef_var_25_75': 0.006, 'min_25_75': 0.046, 'var_25_75': 0.044, 'mean_50_100': 0.025, 'max_50_100': 0.095, 'kurt_50_100': 0.007, 'coef_var_50_100': 0.089, 'var_50_100': 0.022, 'mean_75_125': 0.045, 'max_75_125': 0.243, 'kurt_75_125': 0.007, 'min_75_125': 0.031}</t>
+          <t>{'mean_10_25': 0.036, 'entropy_10_25': 0.026, 'std_class_10_25': 0.038, 'mean_10_50': 0.114, 'min_10_50': 0.001, 'std_class_10_50': 0.08, 'min_25_75': 0.01, 'std_class_25_75': 0.039, 'max_50_100': 0.284, 'kurt_50_100': 0.061, 'skew_50_100': 0.012, 'coef_var_50_100': 0.106, 'mean_75_125': 0.02, 'max_75_125': 0.087, 'percScore_75_125': 0.018, 'score_at_perc_75_125': 0.018, 'min_75_125': 0.018, 'std_class_75_125': 0.033}</t>
         </is>
       </c>
     </row>
